--- a/Тех. пракатика/tech-pracrtise.xlsx
+++ b/Тех. пракатика/tech-pracrtise.xlsx
@@ -8,21 +8,90 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Влад\Desktop\Университет\Тех. пракатика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D221F1B6-F1F8-415E-A82E-1CC910868AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439CFF4-776F-4A28-B373-5105D9B1BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{8FCF5552-4D1D-4800-B1AA-1E2F42CA7B29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FCF5552-4D1D-4800-B1AA-1E2F42CA7B29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Задание1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$A$10:$C$10</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$A$12:$C$12</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$A$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$A$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet2!$A$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$A$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet2!$A$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Sheet2!$A$18</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Задание1!$I$16</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$B$13</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet2!$B$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet2!$B$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$B$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet2!$B$17</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Sheet2!$B$18</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Вид материала</t>
   </si>
@@ -60,9 +129,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>Цена одного изделия</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -78,23 +144,68 @@
     <t>Переменные</t>
   </si>
   <si>
-    <t>х1</t>
-  </si>
-  <si>
-    <t>х2</t>
-  </si>
-  <si>
-    <t>х3</t>
-  </si>
-  <si>
     <t>целевая функция</t>
+  </si>
+  <si>
+    <t>Цена одного изделия (у.е.)</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Питательные вещества</t>
+  </si>
+  <si>
+    <t>Виды сырья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальное содержание питательных веществ в готовом продукте </t>
+  </si>
+  <si>
+    <t>М1</t>
+  </si>
+  <si>
+    <t>М2</t>
+  </si>
+  <si>
+    <t>М3</t>
+  </si>
+  <si>
+    <t>П1</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>П3</t>
+  </si>
+  <si>
+    <t>П4</t>
+  </si>
+  <si>
+    <t>Цена за единицу сырья(у.е.)</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +215,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,19 +262,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,152 +713,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05B0096-9C29-466D-AB55-E3EDCFF79F9C}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7C077C-654D-4A89-A74C-AFA786F9F196}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="16"/>
+    <col min="5" max="5" width="19.88671875" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17">
+        <v>35.714285714285715</v>
+      </c>
+      <c r="C10" s="17">
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <f>3*A10+5*B10+4*C10</f>
+        <v>407.14285714285711</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <f>2*A10+3*B10+6*C10</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B13" s="17">
+        <v>450</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <f>6*A10+8*B10+2*C10</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B14" s="17">
+        <v>400</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <f>3*A10+4*B10+2*C10</f>
+        <v>257.14285714285711</v>
+      </c>
+      <c r="B15" s="17">
         <v>350</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <f>3*A10+5*B10+4*C10</f>
-        <v>12</v>
-      </c>
+      <c r="C15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE1FDAA-FE97-4138-8736-5D46B32D3A7F}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>25.285714285714285</v>
+      </c>
+      <c r="B12" s="17">
+        <v>24.714285714285708</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10.142857142857144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17">
+        <f>12*A12+10*B12+8*C12</f>
+        <v>631.71428571428567</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <f>1*A12+1*B12+0*C12</f>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="B15" s="17">
+        <v>50</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <f>4*A12+2*B12+0*C12</f>
+        <v>150.57142857142856</v>
+      </c>
+      <c r="B16" s="17">
+        <v>80</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <f>1*A12+3*B12+4*C12</f>
+        <v>140</v>
+      </c>
+      <c r="B17" s="17">
+        <v>140</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>4*A12+1*B12+1*C12</f>
+        <v>136</v>
+      </c>
+      <c r="B18" s="1">
+        <v>136</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
